--- a/app/data/plan/plan_2020-11-25.xlsx
+++ b/app/data/plan/plan_2020-11-25.xlsx
@@ -34,12 +34,37 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAE5F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBC0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5B7B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1DADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5DFEC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -69,14 +94,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -50161,38 +50203,39 @@
           <t>Моцарелла</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Бонджорно</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C2,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C2,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>MIN(D2, 0)</f>
         <v/>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2.7% варка, Альче, Лактоза True, Id 1</t>
         </is>
       </c>
-      <c r="L2">
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3">
         <f>-(F2 + F3) / L4</f>
         <v/>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <f>ROUND(L2, 0)</f>
         <v/>
       </c>
@@ -50211,25 +50254,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Эсперсон</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Моцарелла (палочки), 45%, кг, пл/л</t>
         </is>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C3,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C3,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f>MIN(D3, 0)</f>
         <v/>
       </c>
@@ -50245,413 +50288,461 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Фиор ди Латте</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
+        </is>
+      </c>
+      <c r="D7" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C7,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C7,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f>MIN(D7, 0)</f>
         <v/>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
-        </is>
-      </c>
-      <c r="L7">
-        <f>-(F7 + F8 + F9 + F10 + F11 + F12) / L11</f>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5">
+        <f>-(F7) / L12</f>
         <v/>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <f>ROUND(L7, 0)</f>
         <v/>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[14, 18, 20, 17, 4, 3]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D8">
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D8" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C8,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C8,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f>MIN(D8, 0)</f>
         <v/>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
-        </is>
-      </c>
-      <c r="L8">
-        <f>-(F13) / L11</f>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5">
+        <f>-(F8 + F9 + F10) / L12</f>
         <v/>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <f>ROUND(L8, 0)</f>
         <v/>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[25, 12, 12]</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D9">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D9" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C9,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C9,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f>MIN(D9, 0)</f>
         <v/>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
-        </is>
-      </c>
-      <c r="L9">
-        <f>-(F14 + F15 + F16 + F17 + F18) / L11</f>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="n"/>
+      <c r="L9" s="5">
+        <f>-(F11) / L12</f>
         <v/>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <f>ROUND(L9, 0)</f>
         <v/>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[16, 2, 1, 15, 33]</t>
+          <t>[21]</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D10">
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D10" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <f>MIN(D10, 0)</f>
         <v/>
       </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5">
+        <f>-(F12 + F13 + F14 + F15 + F16 + F17) / L12</f>
+        <v/>
+      </c>
+      <c r="M10" s="5">
+        <f>ROUND(L10, 0)</f>
+        <v/>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[24, 23, 26, 27, 22, 7]</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
-        </is>
-      </c>
-      <c r="D11">
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D11" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C11,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C11,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f>MIN(D11, 0)</f>
         <v/>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
-        </is>
-      </c>
-      <c r="D12">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D12" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C12,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C12,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <f>MIN(D12, 0)</f>
         <v/>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D13">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D13" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C13,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C13,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f>MIN(D13, 0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fine Life</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
-        </is>
-      </c>
-      <c r="D14">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Ваш выбор</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D14" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C14,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C14,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <f>MIN(D14, 0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
-        </is>
-      </c>
-      <c r="D15">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Красная птица</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D15" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <f>MIN(D15, 0)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
-        </is>
-      </c>
-      <c r="D16">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D16" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C16,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C16,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <f>MIN(D16, 0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Фермерская коллекция</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D17">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Orecchio Oro</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D17" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C17,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C17,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <f>MIN(D17, 0)</f>
         <v/>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Metro Chef</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
-        </is>
-      </c>
-      <c r="D18">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C18,'файл остатки'!$A$5:$DK$5,0))</f>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D21" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C21,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E18">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C18,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E21" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C21,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F18">
-        <f>MIN(D18, 0)</f>
+      <c r="F21" s="7">
+        <f>MIN(D21, 0)</f>
         <v/>
       </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
+        </is>
+      </c>
+      <c r="K21" s="7" t="n"/>
+      <c r="L21" s="7">
+        <f>-(F21) / L25</f>
+        <v/>
+      </c>
+      <c r="M21" s="7">
+        <f>ROUND(L21, 0)</f>
+        <v/>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D22">
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D22" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <f>MIN(D22, 0)</f>
         <v/>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="7" t="inlineStr">
         <is>
           <t>2.7% варка, Альче, Лактоза True, Id 1</t>
         </is>
       </c>
-      <c r="L22">
-        <f>-(F22 + F23 + F24 + F25 + F26 + F27 + F28) / L25</f>
+      <c r="K22" s="7" t="n"/>
+      <c r="L22" s="7">
+        <f>-(F22 + F23 + F24 + F25 + F26 + F27) / L25</f>
         <v/>
       </c>
-      <c r="M22">
+      <c r="M22" s="7">
         <f>ROUND(L22, 0)</f>
         <v/>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[35, 39, 38, 41, 37, 40, 34]</t>
+          <t>[14, 18, 20, 17, 4, 3]</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -50659,44 +50750,45 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D23">
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D23" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C23,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C23,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <f>MIN(D23, 0)</f>
         <v/>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="7" t="inlineStr">
         <is>
           <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
         </is>
       </c>
-      <c r="L23">
-        <f>-(F29) / L25</f>
+      <c r="K23" s="7" t="n"/>
+      <c r="L23" s="7">
+        <f>-(F28 + F29 + F30 + F31 + F32) / L25</f>
         <v/>
       </c>
-      <c r="M23">
+      <c r="M23" s="7">
         <f>ROUND(L23, 0)</f>
         <v/>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[36]</t>
+          <t>[16, 2, 1, 15, 33]</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -50704,49 +50796,49 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
-        </is>
-      </c>
-      <c r="D24">
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D24" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C24,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C24,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <f>MIN(D24, 0)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
-        </is>
-      </c>
-      <c r="D25">
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D25" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <f>MIN(D25, 0)</f>
         <v/>
       </c>
@@ -50760,831 +50852,796 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D26">
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
+        </is>
+      </c>
+      <c r="D26" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C26,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C26,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <f>MIN(D26, 0)</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D27">
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+        </is>
+      </c>
+      <c r="D27" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C27,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C27,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <f>MIN(D27, 0)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
-        </is>
-      </c>
-      <c r="D28">
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="D28" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C28,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C28,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <f>MIN(D28, 0)</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D29">
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+        </is>
+      </c>
+      <c r="D29" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C29,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C29,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <f>MIN(D29, 0)</f>
         <v/>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D33">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C33,'файл остатки'!$A$5:$DK$5,0))</f>
+    <row r="30">
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
+        </is>
+      </c>
+      <c r="D30" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E33">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C33,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E30" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F33">
-        <f>MIN(D33, 0)</f>
+      <c r="F30" s="7">
+        <f>MIN(D30, 0)</f>
         <v/>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="L33">
-        <f>-(F33 + F34) / L36</f>
+    </row>
+    <row r="31">
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>Фермерская коллекция</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D31" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C31,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="M33">
-        <f>ROUND(L33, 0)</f>
+      <c r="E31" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C31,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>[43, 44]</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, кг</t>
-        </is>
-      </c>
-      <c r="D34">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C34,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="F31" s="7">
+        <f>MIN(D31, 0)</f>
         <v/>
       </c>
-      <c r="E34">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C34,'файл остатки'!$A$5:$DK$5,0))</f>
+    </row>
+    <row r="32">
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>Metro Chef</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
+        </is>
+      </c>
+      <c r="D32" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C32,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F34">
-        <f>MIN(D34, 0)</f>
+      <c r="E32" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C32,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
-        </is>
-      </c>
-      <c r="L34">
-        <f>-(F35) / L36</f>
+      <c r="F32" s="7">
+        <f>MIN(D32, 0)</f>
         <v/>
       </c>
-      <c r="M34">
-        <f>ROUND(L34, 0)</f>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D36" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C36,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>[42]</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
-        </is>
-      </c>
-      <c r="D35">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C35,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E36" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C36,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E35">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C35,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="F36" s="9">
+        <f>MIN(D36, 0)</f>
         <v/>
       </c>
-      <c r="F35">
-        <f>MIN(D35, 0)</f>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n"/>
+      <c r="L36" s="9">
+        <f>-(F36) / L39</f>
         <v/>
       </c>
-    </row>
-    <row r="36">
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>850</v>
+      <c r="M36" s="9">
+        <f>ROUND(L36, 0)</f>
+        <v/>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D37" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C37,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E37" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C37,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F37" s="9">
+        <f>MIN(D37, 0)</f>
+        <v/>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n"/>
+      <c r="L37" s="9">
+        <f>-(F37 + F38 + F39 + F40 + F41 + F42 + F43) / L39</f>
+        <v/>
+      </c>
+      <c r="M37" s="9">
+        <f>ROUND(L37, 0)</f>
+        <v/>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[35, 39, 38, 41, 37, 40, 34]</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D38" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C38,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E38" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C38,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="9">
+        <f>MIN(D38, 0)</f>
+        <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D39">
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+        </is>
+      </c>
+      <c r="D39" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C39,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C39,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F39">
+      <c r="F39" s="9">
         <f>MIN(D39, 0)</f>
         <v/>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="L39">
-        <f>-(F39) / L43</f>
-        <v/>
-      </c>
-      <c r="M39">
-        <f>ROUND(L39, 0)</f>
-        <v/>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>[30]</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
-        <v>9</v>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D40">
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
+        </is>
+      </c>
+      <c r="D40" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C40,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E40">
+      <c r="E40" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C40,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F40">
+      <c r="F40" s="9">
         <f>MIN(D40, 0)</f>
         <v/>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
-        </is>
-      </c>
-      <c r="L40">
-        <f>-(F40) / L43</f>
-        <v/>
-      </c>
-      <c r="M40">
-        <f>ROUND(L40, 0)</f>
-        <v/>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>[11]</t>
-        </is>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D41">
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D41" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C41,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E41">
+      <c r="E41" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C41,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F41">
+      <c r="F41" s="9">
         <f>MIN(D41, 0)</f>
         <v/>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
-        </is>
-      </c>
-      <c r="L41">
-        <f>-(F41 + F42 + F43 + F44 + F45) / L43</f>
-        <v/>
-      </c>
-      <c r="M41">
-        <f>ROUND(L41, 0)</f>
-        <v/>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>[29, 28, 10, 31, 32]</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Fine Life</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D42">
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D42" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C42,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E42">
+      <c r="E42" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C42,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F42">
+      <c r="F42" s="9">
         <f>MIN(D42, 0)</f>
         <v/>
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Orecchio Oro</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D43">
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="D43" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C43,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E43">
+      <c r="E43" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C43,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F43">
+      <c r="F43" s="9">
         <f>MIN(D43, 0)</f>
         <v/>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Ваш выбор</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D44">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C44,'файл остатки'!$A$5:$DK$5,0))</f>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>Качокавалло</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D47" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E44">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C44,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E47" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F44">
-        <f>MIN(D44, 0)</f>
+      <c r="F47" s="9">
+        <f>MIN(D47, 0)</f>
         <v/>
       </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Красная птица</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D45">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C45,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="J47" s="9" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="K47" s="9" t="n"/>
+      <c r="L47" s="9">
+        <f>-(F47 + F48) / L50</f>
         <v/>
       </c>
-      <c r="E45">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C45,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="M47" s="9">
+        <f>ROUND(L47, 0)</f>
         <v/>
       </c>
-      <c r="F45">
-        <f>MIN(D45, 0)</f>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[43, 44]</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, кг</t>
+        </is>
+      </c>
+      <c r="D48" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
+      <c r="E48" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F48" s="9">
+        <f>MIN(D48, 0)</f>
+        <v/>
+      </c>
+      <c r="J48" s="9" t="inlineStr">
+        <is>
+          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
+        </is>
+      </c>
+      <c r="K48" s="9" t="n"/>
+      <c r="L48" s="9">
+        <f>-(F49) / L50</f>
+        <v/>
+      </c>
+      <c r="M48" s="9">
+        <f>ROUND(L48, 0)</f>
+        <v/>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[42]</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D49">
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
+        </is>
+      </c>
+      <c r="D49" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E49">
+      <c r="E49" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F49">
+      <c r="F49" s="9">
         <f>MIN(D49, 0)</f>
         <v/>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
-        </is>
-      </c>
-      <c r="L49">
-        <f>-(F49) / L54</f>
-        <v/>
-      </c>
-      <c r="M49">
-        <f>ROUND(L49, 0)</f>
-        <v/>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>[21]</t>
-        </is>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="inlineStr">
         <is>
           <t>Pretto</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D50">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E50">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F50">
-        <f>MIN(D50, 0)</f>
-        <v/>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
-        </is>
-      </c>
-      <c r="L50">
-        <f>-(F50 + F51 + F52 + F53 + F54 + F55) / L54</f>
-        <v/>
-      </c>
-      <c r="M50">
-        <f>ROUND(L50, 0)</f>
-        <v/>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>[24, 23, 26, 27, 22, 7]</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D51">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E51">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F51">
-        <f>MIN(D51, 0)</f>
-        <v/>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
-        </is>
-      </c>
-      <c r="L51">
-        <f>-(F56) / L54</f>
-        <v/>
-      </c>
-      <c r="M51">
-        <f>ROUND(L51, 0)</f>
-        <v/>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>[9]</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Ваш выбор</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D52">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C52,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E52">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C52,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F52">
-        <f>MIN(D52, 0)</f>
-        <v/>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="L52">
-        <f>-(F57 + F58 + F59) / L54</f>
-        <v/>
-      </c>
-      <c r="M52">
-        <f>ROUND(L52, 0)</f>
-        <v/>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>[25, 12, 12]</t>
-        </is>
-      </c>
-      <c r="S52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Красная птица</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D53">
+      <c r="C53" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D53" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C53,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E53">
+      <c r="E53" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C53,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F53">
+      <c r="F53" s="11">
         <f>MIN(D53, 0)</f>
         <v/>
       </c>
+      <c r="J53" s="11" t="inlineStr">
+        <is>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+        </is>
+      </c>
+      <c r="K53" s="11" t="n"/>
+      <c r="L53" s="11">
+        <f>-(F53 + F54 + F55 + F56 + F57) / L57</f>
+        <v/>
+      </c>
+      <c r="M53" s="11">
+        <f>ROUND(L53, 0)</f>
+        <v/>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[29, 28, 10, 31, 32]</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="11" t="inlineStr">
         <is>
           <t>Fine Life</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D54">
+      <c r="C54" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D54" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C54,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E54">
+      <c r="E54" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C54,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F54">
+      <c r="F54" s="11">
         <f>MIN(D54, 0)</f>
         <v/>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1000</v>
+      <c r="J54" s="11" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="K54" s="11" t="n"/>
+      <c r="L54" s="11">
+        <f>-(F58) / L57</f>
+        <v/>
+      </c>
+      <c r="M54" s="11">
+        <f>ROUND(L54, 0)</f>
+        <v/>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="11" t="inlineStr">
         <is>
           <t>Orecchio Oro</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D55">
+      <c r="C55" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D55" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C55,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E55">
+      <c r="E55" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C55,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F55">
+      <c r="F55" s="11">
         <f>MIN(D55, 0)</f>
         <v/>
       </c>
+      <c r="J55" s="11" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+        </is>
+      </c>
+      <c r="K55" s="11" t="n"/>
+      <c r="L55" s="11">
+        <f>-(F59) / L57</f>
+        <v/>
+      </c>
+      <c r="M55" s="11">
+        <f>ROUND(L55, 0)</f>
+        <v/>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
-        </is>
-      </c>
-      <c r="D56">
+      <c r="B56" s="11" t="inlineStr">
+        <is>
+          <t>Ваш выбор</t>
+        </is>
+      </c>
+      <c r="C56" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D56" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E56">
+      <c r="E56" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F56">
+      <c r="F56" s="11">
         <f>MIN(D56, 0)</f>
         <v/>
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D57">
+      <c r="B57" s="11" t="inlineStr">
+        <is>
+          <t>Красная птица</t>
+        </is>
+      </c>
+      <c r="C57" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D57" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C57,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E57">
+      <c r="E57" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C57,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F57">
+      <c r="F57" s="11">
         <f>MIN(D57, 0)</f>
         <v/>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="11" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D58">
+      <c r="C58" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D58" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C58,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E58">
+      <c r="E58" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C58,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F58">
+      <c r="F58" s="11">
         <f>MIN(D58, 0)</f>
         <v/>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="11" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D59">
+      <c r="C59" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D59" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C59,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E59">
+      <c r="E59" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C59,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F59">
+      <c r="F59" s="11">
         <f>MIN(D59, 0)</f>
         <v/>
       </c>
@@ -51594,30 +51651,30 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A7:A17"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="J54:K54"/>
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J55:K55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/plan/plan_2020-11-25.xlsx
+++ b/app/data/plan/plan_2020-11-25.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,9 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -43,17 +46,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAE5F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00CBC0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5B7B6"/>
+        <fgColor rgb="00E5DFEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAE5F1"/>
       </patternFill>
     </fill>
     <fill>
@@ -63,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5DFEC"/>
+        <fgColor rgb="00E5B7B6"/>
       </patternFill>
     </fill>
   </fills>
@@ -99,26 +102,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -50132,7 +50135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50200,17 +50203,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Моцарелла</t>
+          <t>Фиор ди Латте</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Бонджорно</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
         </is>
       </c>
       <c r="D2" s="3">
@@ -50227,12 +50230,11 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="n"/>
+          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
+        </is>
+      </c>
       <c r="L2" s="3">
-        <f>-(F2 + F3) / L4</f>
+        <f>-(F2) / L7</f>
         <v/>
       </c>
       <c r="M2" s="3">
@@ -50244,24 +50246,24 @@
           <t>Нормативные остатки, кг</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[19, 5]</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Эсперсон</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D3" s="3">
@@ -50276,343 +50278,308 @@
         <f>MIN(D3, 0)</f>
         <v/>
       </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+        </is>
+      </c>
+      <c r="L3" s="3">
+        <f>-(F3) / L7</f>
+        <v/>
+      </c>
+      <c r="M3" s="3">
+        <f>ROUND(L3, 0)</f>
+        <v/>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>850</v>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D4" s="3">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C4,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E4" s="3">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C4,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F4" s="3">
+        <f>MIN(D4, 0)</f>
+        <v/>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L4" s="3">
+        <f>-(F4 + F5 + F6) / L7</f>
+        <v/>
+      </c>
+      <c r="M4" s="3">
+        <f>ROUND(L4, 0)</f>
+        <v/>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>[25, 12, 12]</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D5" s="3">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C5,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E5" s="3">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C5,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F5" s="3">
+        <f>MIN(D5, 0)</f>
+        <v/>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+        </is>
+      </c>
+      <c r="L5" s="3">
+        <f>-(F7 + F8 + F9 + F10 + F11 + F12) / L7</f>
+        <v/>
+      </c>
+      <c r="M5" s="3">
+        <f>ROUND(L5, 0)</f>
+        <v/>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>[24, 23, 26, 27, 22, 7]</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D6" s="3">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C6,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E6" s="3">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C6,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F6" s="3">
+        <f>MIN(D6, 0)</f>
+        <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
-        </is>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D7" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C7,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C7,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <f>MIN(D7, 0)</f>
         <v/>
       </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5">
-        <f>-(F7) / L12</f>
-        <v/>
-      </c>
-      <c r="M7" s="5">
-        <f>ROUND(L7, 0)</f>
-        <v/>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>[9]</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>7</v>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D8" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C8,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C8,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <f>MIN(D8, 0)</f>
         <v/>
       </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5">
-        <f>-(F8 + F9 + F10) / L12</f>
-        <v/>
-      </c>
-      <c r="M8" s="5">
-        <f>ROUND(L8, 0)</f>
-        <v/>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>[25, 12, 12]</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Ваш выбор</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D9" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C9,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C9,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f>MIN(D9, 0)</f>
         <v/>
       </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5">
-        <f>-(F11) / L12</f>
-        <v/>
-      </c>
-      <c r="M9" s="5">
-        <f>ROUND(L9, 0)</f>
-        <v/>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[21]</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Красная птица</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D10" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f>MIN(D10, 0)</f>
         <v/>
       </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5">
-        <f>-(F12 + F13 + F14 + F15 + F16 + F17) / L12</f>
-        <v/>
-      </c>
-      <c r="M10" s="5">
-        <f>ROUND(L10, 0)</f>
-        <v/>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>[24, 23, 26, 27, 22, 7]</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D11" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C11,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C11,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <f>MIN(D11, 0)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D12" s="5">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Orecchio Oro</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D12" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C12,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C12,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <f>MIN(D12, 0)</f>
         <v/>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D13" s="5">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C13,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E13" s="5">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C13,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F13" s="5">
-        <f>MIN(D13, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Ваш выбор</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D14" s="5">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C14,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E14" s="5">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C14,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F14" s="5">
-        <f>MIN(D14, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Красная птица</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D15" s="5">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E15" s="5">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F15" s="5">
-        <f>MIN(D15, 0)</f>
-        <v/>
-      </c>
     </row>
     <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D16" s="5">
@@ -50627,16 +50594,37 @@
         <f>MIN(D16, 0)</f>
         <v/>
       </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L16" s="5">
+        <f>-(F16) / L20</f>
+        <v/>
+      </c>
+      <c r="M16" s="5">
+        <f>ROUND(L16, 0)</f>
+        <v/>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>Orecchio Oro</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D17" s="5">
@@ -50651,215 +50639,191 @@
         <f>MIN(D17, 0)</f>
         <v/>
       </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+        </is>
+      </c>
+      <c r="L17" s="5">
+        <f>-(F17) / L20</f>
+        <v/>
+      </c>
+      <c r="M17" s="5">
+        <f>ROUND(L17, 0)</f>
+        <v/>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D18" s="5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C18,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C18,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F18" s="5">
+        <f>MIN(D18, 0)</f>
+        <v/>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+        </is>
+      </c>
+      <c r="L18" s="5">
+        <f>-(F18 + F19 + F20 + F21 + F22) / L20</f>
+        <v/>
+      </c>
+      <c r="M18" s="5">
+        <f>ROUND(L18, 0)</f>
+        <v/>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
+        <is>
+          <t>[29, 28, 10, 31, 32]</t>
+        </is>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D19" s="5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C19,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E19" s="5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C19,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F19" s="5">
+        <f>MIN(D19, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Orecchio Oro</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D20" s="5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C20,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E20" s="5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C20,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F20" s="5">
+        <f>MIN(D20, 0)</f>
+        <v/>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D21" s="7">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Ваш выбор</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D21" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C21,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C21,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <f>MIN(D21, 0)</f>
         <v/>
       </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
-        </is>
-      </c>
-      <c r="K21" s="7" t="n"/>
-      <c r="L21" s="7">
-        <f>-(F21) / L25</f>
-        <v/>
-      </c>
-      <c r="M21" s="7">
-        <f>ROUND(L21, 0)</f>
-        <v/>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>[6]</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D22" s="7">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Красная птица</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D22" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <f>MIN(D22, 0)</f>
         <v/>
       </c>
-      <c r="J22" s="7" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
-        </is>
-      </c>
-      <c r="K22" s="7" t="n"/>
-      <c r="L22" s="7">
-        <f>-(F22 + F23 + F24 + F25 + F26 + F27) / L25</f>
-        <v/>
-      </c>
-      <c r="M22" s="7">
-        <f>ROUND(L22, 0)</f>
-        <v/>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>[14, 18, 20, 17, 4, 3]</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D23" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C23,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E23" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C23,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F23" s="7">
-        <f>MIN(D23, 0)</f>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
-        </is>
-      </c>
-      <c r="K23" s="7" t="n"/>
-      <c r="L23" s="7">
-        <f>-(F28 + F29 + F30 + F31 + F32) / L25</f>
-        <v/>
-      </c>
-      <c r="M23" s="7">
-        <f>ROUND(L23, 0)</f>
-        <v/>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>[16, 2, 1, 15, 33]</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="7" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D24" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C24,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E24" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C24,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F24" s="7">
-        <f>MIN(D24, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D25" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E25" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F25" s="7">
-        <f>MIN(D25, 0)</f>
-        <v/>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>Моцарелла</t>
+        </is>
+      </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Бонджорно</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
+          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D26" s="7">
@@ -50874,16 +50838,37 @@
         <f>MIN(D26, 0)</f>
         <v/>
       </c>
+      <c r="J26" s="7" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+        </is>
+      </c>
+      <c r="L26" s="7">
+        <f>-(F26 + F27) / L28</f>
+        <v/>
+      </c>
+      <c r="M26" s="7">
+        <f>ROUND(L26, 0)</f>
+        <v/>
+      </c>
+      <c r="R26" s="7" t="inlineStr">
+        <is>
+          <t>[19, 5]</t>
+        </is>
+      </c>
+      <c r="S26" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Эсперсон</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
         </is>
       </c>
       <c r="D27" s="7">
@@ -50900,139 +50885,199 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>Fine Life</t>
-        </is>
-      </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
-        </is>
-      </c>
-      <c r="D28" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C28,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E28" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C28,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F28" s="7">
-        <f>MIN(D28, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
-        </is>
-      </c>
-      <c r="D29" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C29,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E29" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C29,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F29" s="7">
-        <f>MIN(D29, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
-        </is>
-      </c>
-      <c r="D30" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E30" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F30" s="7">
-        <f>MIN(D30, 0)</f>
-        <v/>
+      <c r="J28" s="7" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L28" s="7" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="7" t="inlineStr">
-        <is>
-          <t>Фермерская коллекция</t>
-        </is>
-      </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D31" s="7">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D31" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C31,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C31,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="9">
         <f>MIN(D31, 0)</f>
         <v/>
       </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+        </is>
+      </c>
+      <c r="L31" s="9">
+        <f>-(F31 + F32 + F33 + F34 + F35 + F36 + F37) / L34</f>
+        <v/>
+      </c>
+      <c r="M31" s="9">
+        <f>ROUND(L31, 0)</f>
+        <v/>
+      </c>
+      <c r="R31" s="9" t="inlineStr">
+        <is>
+          <t>[35, 39, 38, 41, 37, 40, 34]</t>
+        </is>
+      </c>
+      <c r="S31" s="9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>Metro Chef</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
-        </is>
-      </c>
-      <c r="D32" s="7">
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D32" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C32,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C32,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="9">
         <f>MIN(D32, 0)</f>
         <v/>
       </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
+        </is>
+      </c>
+      <c r="L32" s="9">
+        <f>-(F38) / L34</f>
+        <v/>
+      </c>
+      <c r="M32" s="9">
+        <f>ROUND(L32, 0)</f>
+        <v/>
+      </c>
+      <c r="R32" s="9" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="S32" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+        </is>
+      </c>
+      <c r="D33" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C33,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E33" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C33,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F33" s="9">
+        <f>MIN(D33, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
+        </is>
+      </c>
+      <c r="D34" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C34,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E34" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C34,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F34" s="9">
+        <f>MIN(D34, 0)</f>
+        <v/>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L34" s="9" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D35" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C35,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E35" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C35,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F35" s="9">
+        <f>MIN(D35, 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D36" s="9">
@@ -51047,38 +51092,16 @@
         <f>MIN(D36, 0)</f>
         <v/>
       </c>
-      <c r="J36" s="9" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
-        </is>
-      </c>
-      <c r="K36" s="9" t="n"/>
-      <c r="L36" s="9">
-        <f>-(F36) / L39</f>
-        <v/>
-      </c>
-      <c r="M36" s="9">
-        <f>ROUND(L36, 0)</f>
-        <v/>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>[36]</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="37">
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
         </is>
       </c>
       <c r="D37" s="9">
@@ -51093,28 +51116,6 @@
         <f>MIN(D37, 0)</f>
         <v/>
       </c>
-      <c r="J37" s="9" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
-        </is>
-      </c>
-      <c r="K37" s="9" t="n"/>
-      <c r="L37" s="9">
-        <f>-(F37 + F38 + F39 + F40 + F41 + F42 + F43) / L39</f>
-        <v/>
-      </c>
-      <c r="M37" s="9">
-        <f>ROUND(L37, 0)</f>
-        <v/>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>[35, 39, 38, 41, 37, 40, 34]</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="B38" s="9" t="inlineStr">
@@ -51124,7 +51125,7 @@
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D38" s="9">
@@ -51140,279 +51141,355 @@
         <v/>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C39" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
-        </is>
-      </c>
-      <c r="D39" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C39,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E39" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C39,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F39" s="9">
-        <f>MIN(D39, 0)</f>
-        <v/>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
-        </is>
-      </c>
-      <c r="D40" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C40,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E40" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C40,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="9">
-        <f>MIN(D40, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D41" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C41,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E41" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C41,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F41" s="9">
-        <f>MIN(D41, 0)</f>
-        <v/>
-      </c>
-    </row>
     <row r="42">
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D42" s="9">
+      <c r="A42" s="10" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C42" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D42" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C42,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C42,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="11">
         <f>MIN(D42, 0)</f>
         <v/>
       </c>
+      <c r="J42" s="11" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+        </is>
+      </c>
+      <c r="L42" s="11">
+        <f>-(F42 + F43 + F44 + F45 + F46 + F47) / L46</f>
+        <v/>
+      </c>
+      <c r="M42" s="11">
+        <f>ROUND(L42, 0)</f>
+        <v/>
+      </c>
+      <c r="R42" s="11" t="inlineStr">
+        <is>
+          <t>[14, 18, 20, 17, 4, 3]</t>
+        </is>
+      </c>
+      <c r="S42" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
-        </is>
-      </c>
-      <c r="D43" s="9">
+      <c r="B43" s="11" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C43" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D43" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C43,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C43,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="11">
         <f>MIN(D43, 0)</f>
         <v/>
       </c>
+      <c r="J43" s="11" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
+        </is>
+      </c>
+      <c r="L43" s="11">
+        <f>-(F48) / L46</f>
+        <v/>
+      </c>
+      <c r="M43" s="11">
+        <f>ROUND(L43, 0)</f>
+        <v/>
+      </c>
+      <c r="R43" s="11" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="S43" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="11" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="C44" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D44" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C44,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E44" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C44,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F44" s="11">
+        <f>MIN(D44, 0)</f>
+        <v/>
+      </c>
+      <c r="J44" s="11" t="inlineStr">
+        <is>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
+        </is>
+      </c>
+      <c r="L44" s="11">
+        <f>-(F49 + F50 + F51 + F52 + F53) / L46</f>
+        <v/>
+      </c>
+      <c r="M44" s="11">
+        <f>ROUND(L44, 0)</f>
+        <v/>
+      </c>
+      <c r="R44" s="11" t="inlineStr">
+        <is>
+          <t>[16, 2, 1, 15, 33]</t>
+        </is>
+      </c>
+      <c r="S44" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="11" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C45" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D45" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C45,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E45" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C45,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F45" s="11">
+        <f>MIN(D45, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="11" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C46" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
+        </is>
+      </c>
+      <c r="D46" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C46,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E46" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C46,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F46" s="11">
+        <f>MIN(D46, 0)</f>
+        <v/>
+      </c>
+      <c r="J46" s="11" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L46" s="11" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="inlineStr">
+      <c r="B47" s="11" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C47" s="9" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D47" s="9">
+      <c r="C47" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+        </is>
+      </c>
+      <c r="D47" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="11">
         <f>MIN(D47, 0)</f>
         <v/>
       </c>
-      <c r="J47" s="9" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="K47" s="9" t="n"/>
-      <c r="L47" s="9">
-        <f>-(F47 + F48) / L50</f>
-        <v/>
-      </c>
-      <c r="M47" s="9">
-        <f>ROUND(L47, 0)</f>
-        <v/>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>[43, 44]</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="48">
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B48" s="11" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, кг</t>
-        </is>
-      </c>
-      <c r="D48" s="9">
+      <c r="C48" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D48" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="11">
         <f>MIN(D48, 0)</f>
         <v/>
       </c>
-      <c r="J48" s="9" t="inlineStr">
-        <is>
-          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
-        </is>
-      </c>
-      <c r="K48" s="9" t="n"/>
-      <c r="L48" s="9">
-        <f>-(F49) / L50</f>
-        <v/>
-      </c>
-      <c r="M48" s="9">
-        <f>ROUND(L48, 0)</f>
-        <v/>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>[42]</t>
-        </is>
-      </c>
-      <c r="S48" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="49">
-      <c r="B49" s="9" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
-        </is>
-      </c>
-      <c r="D49" s="9">
+      <c r="B49" s="11" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C49" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="D49" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="11">
         <f>MIN(D49, 0)</f>
         <v/>
       </c>
     </row>
     <row r="50">
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>850</v>
+      <c r="B50" s="11" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+        </is>
+      </c>
+      <c r="D50" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E50" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F50" s="11">
+        <f>MIN(D50, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="11" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C51" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
+        </is>
+      </c>
+      <c r="D51" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E51" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F51" s="11">
+        <f>MIN(D51, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="11" t="inlineStr">
+        <is>
+          <t>Фермерская коллекция</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D52" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C52,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E52" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C52,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F52" s="11">
+        <f>MIN(D52, 0)</f>
+        <v/>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="10" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B53" s="11" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Metro Chef</t>
         </is>
       </c>
       <c r="C53" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
         </is>
       </c>
       <c r="D53" s="11">
@@ -51427,254 +51504,165 @@
         <f>MIN(D53, 0)</f>
         <v/>
       </c>
-      <c r="J53" s="11" t="inlineStr">
-        <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
-        </is>
-      </c>
-      <c r="K53" s="11" t="n"/>
-      <c r="L53" s="11">
-        <f>-(F53 + F54 + F55 + F56 + F57) / L57</f>
-        <v/>
-      </c>
-      <c r="M53" s="11">
-        <f>ROUND(L53, 0)</f>
-        <v/>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>[29, 28, 10, 31, 32]</t>
-        </is>
-      </c>
-      <c r="S53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="11" t="inlineStr">
-        <is>
-          <t>Fine Life</t>
-        </is>
-      </c>
-      <c r="C54" s="11" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D54" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C54,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E54" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C54,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F54" s="11">
-        <f>MIN(D54, 0)</f>
-        <v/>
-      </c>
-      <c r="J54" s="11" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="K54" s="11" t="n"/>
-      <c r="L54" s="11">
-        <f>-(F58) / L57</f>
-        <v/>
-      </c>
-      <c r="M54" s="11">
-        <f>ROUND(L54, 0)</f>
-        <v/>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[30]</t>
-        </is>
-      </c>
-      <c r="S54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="11" t="inlineStr">
-        <is>
-          <t>Orecchio Oro</t>
-        </is>
-      </c>
-      <c r="C55" s="11" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D55" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C55,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E55" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C55,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F55" s="11">
-        <f>MIN(D55, 0)</f>
-        <v/>
-      </c>
-      <c r="J55" s="11" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
-        </is>
-      </c>
-      <c r="K55" s="11" t="n"/>
-      <c r="L55" s="11">
-        <f>-(F59) / L57</f>
-        <v/>
-      </c>
-      <c r="M55" s="11">
-        <f>ROUND(L55, 0)</f>
-        <v/>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>[11]</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="11" t="inlineStr">
-        <is>
-          <t>Ваш выбор</t>
-        </is>
-      </c>
-      <c r="C56" s="11" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D56" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E56" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F56" s="11">
-        <f>MIN(D56, 0)</f>
-        <v/>
-      </c>
     </row>
     <row r="57">
-      <c r="B57" s="11" t="inlineStr">
-        <is>
-          <t>Красная птица</t>
-        </is>
-      </c>
-      <c r="C57" s="11" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D57" s="11">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>Качокавалло</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D57" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C57,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C57,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="9">
         <f>MIN(D57, 0)</f>
         <v/>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1000</v>
+      <c r="J57" s="9" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L57" s="9">
+        <f>-(F57 + F58) / L60</f>
+        <v/>
+      </c>
+      <c r="M57" s="9">
+        <f>ROUND(L57, 0)</f>
+        <v/>
+      </c>
+      <c r="R57" s="9" t="inlineStr">
+        <is>
+          <t>[43, 44]</t>
+        </is>
+      </c>
+      <c r="S57" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="11" t="inlineStr">
+      <c r="B58" s="9" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C58" s="11" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D58" s="11">
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, кг</t>
+        </is>
+      </c>
+      <c r="D58" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C58,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C58,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="9">
         <f>MIN(D58, 0)</f>
         <v/>
       </c>
+      <c r="J58" s="9" t="inlineStr">
+        <is>
+          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
+        </is>
+      </c>
+      <c r="L58" s="9">
+        <f>-(F59) / L60</f>
+        <v/>
+      </c>
+      <c r="M58" s="9">
+        <f>ROUND(L58, 0)</f>
+        <v/>
+      </c>
+      <c r="R58" s="9" t="inlineStr">
+        <is>
+          <t>[42]</t>
+        </is>
+      </c>
+      <c r="S58" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="59">
-      <c r="B59" s="11" t="inlineStr">
+      <c r="B59" s="9" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C59" s="11" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D59" s="11">
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
+        </is>
+      </c>
+      <c r="D59" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C59,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C59,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="9">
         <f>MIN(D59, 0)</f>
         <v/>
       </c>
     </row>
+    <row r="60">
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L60" s="9" t="n">
+        <v>850</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A42:A53"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J58:K58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/plan/plan_2020-11-25.xlsx
+++ b/app/data/plan/plan_2020-11-25.xlsx
@@ -50144,6 +50144,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col hidden="1" width="13" customWidth="1" min="18" max="18"/>
     <col hidden="1" width="13" customWidth="1" min="19" max="19"/>
   </cols>
@@ -50208,12 +50211,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D2" s="3">
@@ -50230,11 +50233,11 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
         </is>
       </c>
       <c r="L2" s="3">
-        <f>-(F2) / L7</f>
+        <f>-(F2 + F3 + F4 + F5 + F6 + F7) / L7</f>
         <v/>
       </c>
       <c r="M2" s="3">
@@ -50248,22 +50251,22 @@
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[24, 23, 26, 27, 22, 7]</t>
         </is>
       </c>
       <c r="S2" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D3" s="3">
@@ -50280,11 +50283,11 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
         </is>
       </c>
       <c r="L3" s="3">
-        <f>-(F3) / L7</f>
+        <f>-(F8) / L7</f>
         <v/>
       </c>
       <c r="M3" s="3">
@@ -50293,22 +50296,22 @@
       </c>
       <c r="R3" s="3" t="inlineStr">
         <is>
-          <t>[21]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="S3" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D4" s="3">
@@ -50325,11 +50328,11 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
         </is>
       </c>
       <c r="L4" s="3">
-        <f>-(F4 + F5 + F6) / L7</f>
+        <f>-(F9) / L7</f>
         <v/>
       </c>
       <c r="M4" s="3">
@@ -50338,22 +50341,22 @@
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>[25, 12, 12]</t>
+          <t>[21]</t>
         </is>
       </c>
       <c r="S4" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Красная птица</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D5" s="3">
@@ -50370,11 +50373,11 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
         </is>
       </c>
       <c r="L5" s="3">
-        <f>-(F7 + F8 + F9 + F10 + F11 + F12) / L7</f>
+        <f>-(F10 + F11 + F12) / L7</f>
         <v/>
       </c>
       <c r="M5" s="3">
@@ -50383,22 +50386,22 @@
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
-          <t>[24, 23, 26, 27, 22, 7]</t>
+          <t>[25, 12, 12]</t>
         </is>
       </c>
       <c r="S5" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D6" s="3">
@@ -50417,12 +50420,12 @@
     <row r="7">
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Orecchio Oro</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D7" s="3">
@@ -50449,12 +50452,12 @@
     <row r="8">
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
         </is>
       </c>
       <c r="D8" s="3">
@@ -50473,12 +50476,12 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D9" s="3">
@@ -50497,12 +50500,12 @@
     <row r="10">
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D10" s="3">
@@ -50521,12 +50524,12 @@
     <row r="11">
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
         </is>
       </c>
       <c r="D11" s="3">
@@ -50545,12 +50548,12 @@
     <row r="12">
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Orecchio Oro</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
         </is>
       </c>
       <c r="D12" s="3">
@@ -50574,12 +50577,12 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
+          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D16" s="5">
@@ -50596,11 +50599,11 @@
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
         </is>
       </c>
       <c r="L16" s="5">
-        <f>-(F16) / L20</f>
+        <f>-(F16 + F17 + F18 + F19 + F20) / L20</f>
         <v/>
       </c>
       <c r="M16" s="5">
@@ -50609,22 +50612,22 @@
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[29, 28, 10, 31, 32]</t>
         </is>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D17" s="5">
@@ -50645,7 +50648,7 @@
         </is>
       </c>
       <c r="L17" s="5">
-        <f>-(F17) / L20</f>
+        <f>-(F21) / L20</f>
         <v/>
       </c>
       <c r="M17" s="5">
@@ -50664,12 +50667,12 @@
     <row r="18">
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Orecchio Oro</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D18" s="5">
@@ -50686,11 +50689,11 @@
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
         </is>
       </c>
       <c r="L18" s="5">
-        <f>-(F18 + F19 + F20 + F21 + F22) / L20</f>
+        <f>-(F22) / L20</f>
         <v/>
       </c>
       <c r="M18" s="5">
@@ -50699,22 +50702,22 @@
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>[29, 28, 10, 31, 32]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D19" s="5">
@@ -50733,12 +50736,12 @@
     <row r="20">
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>Orecchio Oro</t>
+          <t>Красная птица</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D20" s="5">
@@ -50765,12 +50768,12 @@
     <row r="21">
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D21" s="5">
@@ -50789,12 +50792,12 @@
     <row r="22">
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D22" s="5">
@@ -51154,7 +51157,7 @@
       </c>
       <c r="C42" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D42" s="11">
@@ -51171,11 +51174,11 @@
       </c>
       <c r="J42" s="11" t="inlineStr">
         <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
         </is>
       </c>
       <c r="L42" s="11">
-        <f>-(F42 + F43 + F44 + F45 + F46 + F47) / L46</f>
+        <f>-(F42) / L46</f>
         <v/>
       </c>
       <c r="M42" s="11">
@@ -51184,11 +51187,11 @@
       </c>
       <c r="R42" s="11" t="inlineStr">
         <is>
-          <t>[14, 18, 20, 17, 4, 3]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="S42" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -51199,7 +51202,7 @@
       </c>
       <c r="C43" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="D43" s="11">
@@ -51216,11 +51219,11 @@
       </c>
       <c r="J43" s="11" t="inlineStr">
         <is>
-          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
         </is>
       </c>
       <c r="L43" s="11">
-        <f>-(F48) / L46</f>
+        <f>-(F43 + F44 + F45 + F46 + F47 + F48) / L46</f>
         <v/>
       </c>
       <c r="M43" s="11">
@@ -51229,22 +51232,22 @@
       </c>
       <c r="R43" s="11" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[14, 18, 20, 17, 4, 3]</t>
         </is>
       </c>
       <c r="S43" s="11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="11" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D44" s="11">
@@ -51284,12 +51287,12 @@
     <row r="45">
       <c r="B45" s="11" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C45" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D45" s="11">
@@ -51313,7 +51316,7 @@
       </c>
       <c r="C46" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D46" s="11">
@@ -51345,7 +51348,7 @@
       </c>
       <c r="C47" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
         </is>
       </c>
       <c r="D47" s="11">
@@ -51369,7 +51372,7 @@
       </c>
       <c r="C48" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
         </is>
       </c>
       <c r="D48" s="11">
@@ -51518,7 +51521,7 @@
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
         </is>
       </c>
       <c r="D57" s="9">
@@ -51535,11 +51538,11 @@
       </c>
       <c r="J57" s="9" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
         </is>
       </c>
       <c r="L57" s="9">
-        <f>-(F57 + F58) / L60</f>
+        <f>-(F57) / L60</f>
         <v/>
       </c>
       <c r="M57" s="9">
@@ -51548,11 +51551,11 @@
       </c>
       <c r="R57" s="9" t="inlineStr">
         <is>
-          <t>[43, 44]</t>
+          <t>[42]</t>
         </is>
       </c>
       <c r="S57" s="9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -51563,7 +51566,7 @@
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Качокавалло "Unagrande", 45%, кг</t>
+          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="D58" s="9">
@@ -51580,11 +51583,11 @@
       </c>
       <c r="J58" s="9" t="inlineStr">
         <is>
-          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
         </is>
       </c>
       <c r="L58" s="9">
-        <f>-(F59) / L60</f>
+        <f>-(F58 + F59) / L60</f>
         <v/>
       </c>
       <c r="M58" s="9">
@@ -51593,11 +51596,11 @@
       </c>
       <c r="R58" s="9" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>[43, 44]</t>
         </is>
       </c>
       <c r="S58" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -51608,7 +51611,7 @@
       </c>
       <c r="C59" s="9" t="inlineStr">
         <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
+          <t>Качокавалло "Unagrande", 45%, кг</t>
         </is>
       </c>
       <c r="D59" s="9">

--- a/app/data/plan/plan_2020-11-25.xlsx
+++ b/app/data/plan/plan_2020-11-25.xlsx
@@ -50135,7 +50135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50211,12 +50211,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D2" s="3">
@@ -50233,11 +50233,11 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
         </is>
       </c>
       <c r="L2" s="3">
-        <f>-(F2 + F3 + F4 + F5 + F6 + F7) / L7</f>
+        <f>-(F2 + F3 + F4) / L7</f>
         <v/>
       </c>
       <c r="M2" s="3">
@@ -50251,22 +50251,22 @@
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>[24, 23, 26, 27, 22, 7]</t>
+          <t>[25, 12, 12]</t>
         </is>
       </c>
       <c r="S2" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
         </is>
       </c>
       <c r="D3" s="3">
@@ -50287,7 +50287,7 @@
         </is>
       </c>
       <c r="L3" s="3">
-        <f>-(F8) / L7</f>
+        <f>-(F5) / L7</f>
         <v/>
       </c>
       <c r="M3" s="3">
@@ -50306,12 +50306,12 @@
     <row r="4">
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
         </is>
       </c>
       <c r="D4" s="3">
@@ -50328,11 +50328,11 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
         </is>
       </c>
       <c r="L4" s="3">
-        <f>-(F9) / L7</f>
+        <f>-(F6 + F7 + F8 + F9 + F10) / L7</f>
         <v/>
       </c>
       <c r="M4" s="3">
@@ -50341,22 +50341,22 @@
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>[21]</t>
+          <t>[24, 23, 26, 27, 22]</t>
         </is>
       </c>
       <c r="S4" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
         </is>
       </c>
       <c r="D5" s="3">
@@ -50373,11 +50373,11 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
         </is>
       </c>
       <c r="L5" s="3">
-        <f>-(F10 + F11 + F12) / L7</f>
+        <f>-(F11) / L7</f>
         <v/>
       </c>
       <c r="M5" s="3">
@@ -50386,22 +50386,22 @@
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
-          <t>[25, 12, 12]</t>
+          <t>[21]</t>
         </is>
       </c>
       <c r="S5" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D6" s="3">
@@ -50420,12 +50420,12 @@
     <row r="7">
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Orecchio Oro</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D7" s="3">
@@ -50452,12 +50452,12 @@
     <row r="8">
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D8" s="3">
@@ -50476,12 +50476,12 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Красная птица</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D9" s="3">
@@ -50500,12 +50500,12 @@
     <row r="10">
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D10" s="3">
@@ -50529,7 +50529,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D11" s="3">
@@ -50545,36 +50545,57 @@
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="3" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D12" s="3">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C12,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D15" s="5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E12" s="3">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C12,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E15" s="5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F12" s="3">
-        <f>MIN(D12, 0)</f>
+      <c r="F15" s="5">
+        <f>MIN(D15, 0)</f>
         <v/>
       </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L15" s="5">
+        <f>-(F15) / L19</f>
+        <v/>
+      </c>
+      <c r="M15" s="5">
+        <f>ROUND(L15, 0)</f>
+        <v/>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Pretto</t>
@@ -50603,7 +50624,7 @@
         </is>
       </c>
       <c r="L16" s="5">
-        <f>-(F16 + F17 + F18 + F19 + F20) / L20</f>
+        <f>-(F16 + F17 + F18 + F19 + F20) / L19</f>
         <v/>
       </c>
       <c r="M16" s="5">
@@ -50648,7 +50669,7 @@
         </is>
       </c>
       <c r="L17" s="5">
-        <f>-(F21) / L20</f>
+        <f>-(F21) / L19</f>
         <v/>
       </c>
       <c r="M17" s="5">
@@ -50687,27 +50708,6 @@
         <f>MIN(D18, 0)</f>
         <v/>
       </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="L18" s="5">
-        <f>-(F22) / L20</f>
-        <v/>
-      </c>
-      <c r="M18" s="5">
-        <f>ROUND(L18, 0)</f>
-        <v/>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>[30]</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="19">
       <c r="B19" s="5" t="inlineStr">
@@ -50732,6 +50732,14 @@
         <f>MIN(D19, 0)</f>
         <v/>
       </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="5" t="inlineStr">
@@ -50756,14 +50764,6 @@
         <f>MIN(D20, 0)</f>
         <v/>
       </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="21">
       <c r="B21" s="5" t="inlineStr">
@@ -50789,44 +50789,65 @@
         <v/>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D22" s="5">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Моцарелла</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Бонджорно</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D25" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E22" s="5">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E25" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F22" s="5">
-        <f>MIN(D22, 0)</f>
+      <c r="F25" s="7">
+        <f>MIN(D25, 0)</f>
         <v/>
       </c>
+      <c r="J25" s="7" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+        </is>
+      </c>
+      <c r="L25" s="7">
+        <f>-(F25 + F26) / L27</f>
+        <v/>
+      </c>
+      <c r="M25" s="7">
+        <f>ROUND(L25, 0)</f>
+        <v/>
+      </c>
+      <c r="R25" s="7" t="inlineStr">
+        <is>
+          <t>[19, 5]</t>
+        </is>
+      </c>
+      <c r="S25" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Моцарелла</t>
-        </is>
-      </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>Бонджорно</t>
+          <t>Эсперсон</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
         </is>
       </c>
       <c r="D26" s="7">
@@ -50841,76 +50862,76 @@
         <f>MIN(D26, 0)</f>
         <v/>
       </c>
-      <c r="J26" s="7" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L27" s="7" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D30" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E30" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F30" s="9">
+        <f>MIN(D30, 0)</f>
+        <v/>
+      </c>
+      <c r="J30" s="9" t="inlineStr">
         <is>
           <t>2.7% варка, Альче, Лактоза True, Id 1</t>
         </is>
       </c>
-      <c r="L26" s="7">
-        <f>-(F26 + F27) / L28</f>
+      <c r="L30" s="9">
+        <f>-(F30 + F31 + F32 + F33 + F34 + F35 + F36) / L33</f>
         <v/>
       </c>
-      <c r="M26" s="7">
-        <f>ROUND(L26, 0)</f>
+      <c r="M30" s="9">
+        <f>ROUND(L30, 0)</f>
         <v/>
       </c>
-      <c r="R26" s="7" t="inlineStr">
-        <is>
-          <t>[19, 5]</t>
-        </is>
-      </c>
-      <c r="S26" s="7" t="n">
+      <c r="R30" s="9" t="inlineStr">
+        <is>
+          <t>[35, 39, 38, 41, 37, 40, 34]</t>
+        </is>
+      </c>
+      <c r="S30" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>Эсперсон</t>
-        </is>
-      </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
-        </is>
-      </c>
-      <c r="D27" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C27,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E27" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C27,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F27" s="7">
-        <f>MIN(D27, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="J28" s="7" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L28" s="7" t="n">
-        <v>850</v>
-      </c>
-    </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D31" s="9">
@@ -50927,11 +50948,11 @@
       </c>
       <c r="J31" s="9" t="inlineStr">
         <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
         </is>
       </c>
       <c r="L31" s="9">
-        <f>-(F31 + F32 + F33 + F34 + F35 + F36 + F37) / L34</f>
+        <f>-(F37) / L33</f>
         <v/>
       </c>
       <c r="M31" s="9">
@@ -50940,11 +50961,11 @@
       </c>
       <c r="R31" s="9" t="inlineStr">
         <is>
-          <t>[35, 39, 38, 41, 37, 40, 34]</t>
+          <t>[36]</t>
         </is>
       </c>
       <c r="S31" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -50955,7 +50976,7 @@
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
         </is>
       </c>
       <c r="D32" s="9">
@@ -50970,27 +50991,6 @@
         <f>MIN(D32, 0)</f>
         <v/>
       </c>
-      <c r="J32" s="9" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
-        </is>
-      </c>
-      <c r="L32" s="9">
-        <f>-(F38) / L34</f>
-        <v/>
-      </c>
-      <c r="M32" s="9">
-        <f>ROUND(L32, 0)</f>
-        <v/>
-      </c>
-      <c r="R32" s="9" t="inlineStr">
-        <is>
-          <t>[36]</t>
-        </is>
-      </c>
-      <c r="S32" s="9" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="B33" s="9" t="inlineStr">
@@ -51000,7 +51000,7 @@
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
         </is>
       </c>
       <c r="D33" s="9">
@@ -51015,6 +51015,14 @@
         <f>MIN(D33, 0)</f>
         <v/>
       </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L33" s="9" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="9" t="inlineStr">
@@ -51024,7 +51032,7 @@
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D34" s="9">
@@ -51039,24 +51047,16 @@
         <f>MIN(D34, 0)</f>
         <v/>
       </c>
-      <c r="J34" s="9" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="35">
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D35" s="9">
@@ -51075,12 +51075,12 @@
     <row r="36">
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
         </is>
       </c>
       <c r="D36" s="9">
@@ -51104,7 +51104,7 @@
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D37" s="9">
@@ -51120,44 +51120,65 @@
         <v/>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D38" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C38,'файл остатки'!$A$5:$DK$5,0))</f>
+    <row r="41">
+      <c r="A41" s="10" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C41" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D41" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C41,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E38" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C38,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E41" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C41,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F38" s="9">
-        <f>MIN(D38, 0)</f>
+      <c r="F41" s="11">
+        <f>MIN(D41, 0)</f>
         <v/>
       </c>
+      <c r="J41" s="11" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
+        </is>
+      </c>
+      <c r="L41" s="11">
+        <f>-(F41) / L45</f>
+        <v/>
+      </c>
+      <c r="M41" s="11">
+        <f>ROUND(L41, 0)</f>
+        <v/>
+      </c>
+      <c r="R41" s="11" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="S41" s="11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B42" s="11" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C42" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
         </is>
       </c>
       <c r="D42" s="11">
@@ -51174,11 +51195,11 @@
       </c>
       <c r="J42" s="11" t="inlineStr">
         <is>
-          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
         </is>
       </c>
       <c r="L42" s="11">
-        <f>-(F42) / L46</f>
+        <f>-(F42 + F43 + F44 + F45 + F46) / L45</f>
         <v/>
       </c>
       <c r="M42" s="11">
@@ -51187,22 +51208,22 @@
       </c>
       <c r="R42" s="11" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[16, 2, 1, 15, 33]</t>
         </is>
       </c>
       <c r="S42" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="11" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C43" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
         </is>
       </c>
       <c r="D43" s="11">
@@ -51223,7 +51244,7 @@
         </is>
       </c>
       <c r="L43" s="11">
-        <f>-(F43 + F44 + F45 + F46 + F47 + F48) / L46</f>
+        <f>-(F47 + F48 + F49 + F50 + F51 + F52) / L45</f>
         <v/>
       </c>
       <c r="M43" s="11">
@@ -51242,12 +51263,12 @@
     <row r="44">
       <c r="B44" s="11" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
         </is>
       </c>
       <c r="D44" s="11">
@@ -51262,37 +51283,16 @@
         <f>MIN(D44, 0)</f>
         <v/>
       </c>
-      <c r="J44" s="11" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
-        </is>
-      </c>
-      <c r="L44" s="11">
-        <f>-(F49 + F50 + F51 + F52 + F53) / L46</f>
-        <v/>
-      </c>
-      <c r="M44" s="11">
-        <f>ROUND(L44, 0)</f>
-        <v/>
-      </c>
-      <c r="R44" s="11" t="inlineStr">
-        <is>
-          <t>[16, 2, 1, 15, 33]</t>
-        </is>
-      </c>
-      <c r="S44" s="11" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="45">
       <c r="B45" s="11" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Фермерская коллекция</t>
         </is>
       </c>
       <c r="C45" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
         </is>
       </c>
       <c r="D45" s="11">
@@ -51307,16 +51307,24 @@
         <f>MIN(D45, 0)</f>
         <v/>
       </c>
+      <c r="J45" s="11" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L45" s="11" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="11" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Metro Chef</t>
         </is>
       </c>
       <c r="C46" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
         </is>
       </c>
       <c r="D46" s="11">
@@ -51331,14 +51339,6 @@
         <f>MIN(D46, 0)</f>
         <v/>
       </c>
-      <c r="J46" s="11" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L46" s="11" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="47">
       <c r="B47" s="11" t="inlineStr">
@@ -51348,7 +51348,7 @@
       </c>
       <c r="C47" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="D47" s="11">
@@ -51372,7 +51372,7 @@
       </c>
       <c r="C48" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D48" s="11">
@@ -51391,12 +51391,12 @@
     <row r="49">
       <c r="B49" s="11" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C49" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D49" s="11">
@@ -51415,12 +51415,12 @@
     <row r="50">
       <c r="B50" s="11" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D50" s="11">
@@ -51439,12 +51439,12 @@
     <row r="51">
       <c r="B51" s="11" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C51" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
+          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
         </is>
       </c>
       <c r="D51" s="11">
@@ -51463,12 +51463,12 @@
     <row r="52">
       <c r="B52" s="11" t="inlineStr">
         <is>
-          <t>Фермерская коллекция</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C52" s="11" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
         </is>
       </c>
       <c r="D52" s="11">
@@ -51484,36 +51484,57 @@
         <v/>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="11" t="inlineStr">
-        <is>
-          <t>Metro Chef</t>
-        </is>
-      </c>
-      <c r="C53" s="11" t="inlineStr">
-        <is>
-          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
-        </is>
-      </c>
-      <c r="D53" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C53,'файл остатки'!$A$5:$DK$5,0))</f>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>Качокавалло</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D56" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E53" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C53,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E56" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F53" s="11">
-        <f>MIN(D53, 0)</f>
+      <c r="F56" s="9">
+        <f>MIN(D56, 0)</f>
         <v/>
       </c>
+      <c r="J56" s="9" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L56" s="9">
+        <f>-(F56 + F57 + F58) / L58</f>
+        <v/>
+      </c>
+      <c r="M56" s="9">
+        <f>ROUND(L56, 0)</f>
+        <v/>
+      </c>
+      <c r="R56" s="9" t="inlineStr">
+        <is>
+          <t>[43, 44, 42]</t>
+        </is>
+      </c>
+      <c r="S56" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
           <t>Unagrande</t>
@@ -51521,7 +51542,7 @@
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
+          <t>Качокавалло "Unagrande", 45%, кг</t>
         </is>
       </c>
       <c r="D57" s="9">
@@ -51536,27 +51557,6 @@
         <f>MIN(D57, 0)</f>
         <v/>
       </c>
-      <c r="J57" s="9" t="inlineStr">
-        <is>
-          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
-        </is>
-      </c>
-      <c r="L57" s="9">
-        <f>-(F57) / L60</f>
-        <v/>
-      </c>
-      <c r="M57" s="9">
-        <f>ROUND(L57, 0)</f>
-        <v/>
-      </c>
-      <c r="R57" s="9" t="inlineStr">
-        <is>
-          <t>[42]</t>
-        </is>
-      </c>
-      <c r="S57" s="9" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="58">
       <c r="B58" s="9" t="inlineStr">
@@ -51566,7 +51566,7 @@
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
         </is>
       </c>
       <c r="D58" s="9">
@@ -51583,89 +51583,41 @@
       </c>
       <c r="J58" s="9" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="L58" s="9">
-        <f>-(F58 + F59) / L60</f>
-        <v/>
-      </c>
-      <c r="M58" s="9">
-        <f>ROUND(L58, 0)</f>
-        <v/>
-      </c>
-      <c r="R58" s="9" t="inlineStr">
-        <is>
-          <t>[43, 44]</t>
-        </is>
-      </c>
-      <c r="S58" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="9" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C59" s="9" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, кг</t>
-        </is>
-      </c>
-      <c r="D59" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C59,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E59" s="9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C59,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F59" s="9">
-        <f>MIN(D59, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="J60" s="9" t="inlineStr">
-        <is>
           <t>Объем варки</t>
         </is>
       </c>
-      <c r="L60" s="9" t="n">
+      <c r="L58" s="9" t="n">
         <v>850</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A2:A11"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A42:A53"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="J57:K57"/>
     <mergeCell ref="J58:K58"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="J56:K56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
